--- a/Code/Results/Cases/Case_4_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.040247291848516</v>
+        <v>1.094724718943803</v>
       </c>
       <c r="D2">
-        <v>1.050818544309843</v>
+        <v>1.087544245363512</v>
       </c>
       <c r="E2">
-        <v>1.056970712021905</v>
+        <v>1.105475243550892</v>
       </c>
       <c r="F2">
-        <v>1.061614652050983</v>
+        <v>1.106032582824806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056549121471405</v>
+        <v>1.054759433496571</v>
       </c>
       <c r="J2">
-        <v>1.061287416619211</v>
+        <v>1.099534447332846</v>
       </c>
       <c r="K2">
-        <v>1.061612543408836</v>
+        <v>1.090199235921284</v>
       </c>
       <c r="L2">
-        <v>1.067689561399291</v>
+        <v>1.108084829822062</v>
       </c>
       <c r="M2">
-        <v>1.072277490791437</v>
+        <v>1.108640783222091</v>
       </c>
       <c r="N2">
-        <v>1.062794566482178</v>
+        <v>1.101095912366422</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.049603716901711</v>
+        <v>1.096547688467868</v>
       </c>
       <c r="D3">
-        <v>1.058013324453822</v>
+        <v>1.08894356324363</v>
       </c>
       <c r="E3">
-        <v>1.065646616645792</v>
+        <v>1.107209307454973</v>
       </c>
       <c r="F3">
-        <v>1.069810295787643</v>
+        <v>1.107659039332691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059424541262854</v>
+        <v>1.05521519482839</v>
       </c>
       <c r="J3">
-        <v>1.068827771517023</v>
+        <v>1.101020111055283</v>
       </c>
       <c r="K3">
-        <v>1.067954060998604</v>
+        <v>1.09141674748309</v>
       </c>
       <c r="L3">
-        <v>1.075503177101599</v>
+        <v>1.109639621278553</v>
       </c>
       <c r="M3">
-        <v>1.079621562401551</v>
+        <v>1.110088316736458</v>
       </c>
       <c r="N3">
-        <v>1.070345629548836</v>
+        <v>1.102583685901753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.055451788849217</v>
+        <v>1.097724861194594</v>
       </c>
       <c r="D4">
-        <v>1.062511680976392</v>
+        <v>1.089846631427033</v>
       </c>
       <c r="E4">
-        <v>1.071074766690674</v>
+        <v>1.108329238015807</v>
       </c>
       <c r="F4">
-        <v>1.074937412368571</v>
+        <v>1.108709253941864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061207893483784</v>
+        <v>1.055507641793345</v>
       </c>
       <c r="J4">
-        <v>1.073536055020263</v>
+        <v>1.101978661950653</v>
       </c>
       <c r="K4">
-        <v>1.071909938093629</v>
+        <v>1.092201639698915</v>
       </c>
       <c r="L4">
-        <v>1.080384875480134</v>
+        <v>1.110643073628432</v>
       </c>
       <c r="M4">
-        <v>1.084208318679001</v>
+        <v>1.111022258407817</v>
       </c>
       <c r="N4">
-        <v>1.075060599354698</v>
+        <v>1.103543598049343</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.057864231801896</v>
+        <v>1.098219181798792</v>
       </c>
       <c r="D5">
-        <v>1.064367529910437</v>
+        <v>1.09022572064687</v>
       </c>
       <c r="E5">
-        <v>1.073315184454514</v>
+        <v>1.108799560857636</v>
       </c>
       <c r="F5">
-        <v>1.077053417548973</v>
+        <v>1.10915024648958</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061940151270966</v>
+        <v>1.055630001372214</v>
       </c>
       <c r="J5">
-        <v>1.07547711014738</v>
+        <v>1.102380984476992</v>
       </c>
       <c r="K5">
-        <v>1.073539846205206</v>
+        <v>1.092530919061478</v>
       </c>
       <c r="L5">
-        <v>1.082398083733583</v>
+        <v>1.111064313976778</v>
       </c>
       <c r="M5">
-        <v>1.086099493302828</v>
+        <v>1.111414249884779</v>
       </c>
       <c r="N5">
-        <v>1.077004411002738</v>
+        <v>1.103946491919815</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05826667798946</v>
+        <v>1.09830214781211</v>
       </c>
       <c r="D6">
-        <v>1.064677131767643</v>
+        <v>1.090289338810487</v>
       </c>
       <c r="E6">
-        <v>1.073689001086424</v>
+        <v>1.108878501415792</v>
       </c>
       <c r="F6">
-        <v>1.077406465292253</v>
+        <v>1.109224261062268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062062104487406</v>
+        <v>1.055650511889336</v>
       </c>
       <c r="J6">
-        <v>1.075800846001349</v>
+        <v>1.10244849828425</v>
       </c>
       <c r="K6">
-        <v>1.073811630584169</v>
+        <v>1.09258616636848</v>
       </c>
       <c r="L6">
-        <v>1.082733892161764</v>
+        <v>1.111135006596295</v>
       </c>
       <c r="M6">
-        <v>1.086414922151204</v>
+        <v>1.111480029907623</v>
       </c>
       <c r="N6">
-        <v>1.077328606598753</v>
+        <v>1.104014101604424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.055484201042532</v>
+        <v>1.097731468522577</v>
       </c>
       <c r="D7">
-        <v>1.062536614520845</v>
+        <v>1.08985169902474</v>
       </c>
       <c r="E7">
-        <v>1.071104863023155</v>
+        <v>1.108335524423957</v>
       </c>
       <c r="F7">
-        <v>1.074965838110205</v>
+        <v>1.108715148523755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061217745285111</v>
+        <v>1.055509279061529</v>
       </c>
       <c r="J7">
-        <v>1.073562138783509</v>
+        <v>1.101984040350995</v>
       </c>
       <c r="K7">
-        <v>1.071931844523141</v>
+        <v>1.092206042241297</v>
       </c>
       <c r="L7">
-        <v>1.080411926225474</v>
+        <v>1.110648704647179</v>
       </c>
       <c r="M7">
-        <v>1.084233731311173</v>
+        <v>1.111027498707277</v>
       </c>
       <c r="N7">
-        <v>1.07508672015988</v>
+        <v>1.103548984087629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.043454103529372</v>
+        <v>1.095341307743296</v>
       </c>
       <c r="D8">
-        <v>1.053284091173841</v>
+        <v>1.088017651132323</v>
       </c>
       <c r="E8">
-        <v>1.059943068622957</v>
+        <v>1.10606172618091</v>
       </c>
       <c r="F8">
-        <v>1.064422569071974</v>
+        <v>1.106582716433555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057537527431679</v>
+        <v>1.054913972215502</v>
       </c>
       <c r="J8">
-        <v>1.063872731147651</v>
+        <v>1.100037115472286</v>
       </c>
       <c r="K8">
-        <v>1.063787610234063</v>
+        <v>1.090611309849217</v>
       </c>
       <c r="L8">
-        <v>1.070367971003561</v>
+        <v>1.108610824718937</v>
       </c>
       <c r="M8">
-        <v>1.07479527002612</v>
+        <v>1.109130551584239</v>
       </c>
       <c r="N8">
-        <v>1.065383552453789</v>
+        <v>1.101599294352277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020509387865539</v>
+        <v>1.091110436007784</v>
       </c>
       <c r="D9">
-        <v>1.035655955927398</v>
+        <v>1.084767110148246</v>
       </c>
       <c r="E9">
-        <v>1.038704437977849</v>
+        <v>1.102038158242861</v>
       </c>
       <c r="F9">
-        <v>1.044357979274865</v>
+        <v>1.102807631147321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050408577619623</v>
+        <v>1.053845933083618</v>
       </c>
       <c r="J9">
-        <v>1.045358129134401</v>
+        <v>1.096584627378029</v>
       </c>
       <c r="K9">
-        <v>1.048195865484319</v>
+        <v>1.087778400684124</v>
       </c>
       <c r="L9">
-        <v>1.051199291933252</v>
+        <v>1.104999361257431</v>
       </c>
       <c r="M9">
-        <v>1.056770158574943</v>
+        <v>1.105766642271563</v>
       </c>
       <c r="N9">
-        <v>1.046842657582026</v>
+        <v>1.098141903328921</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003766028016245</v>
+        <v>1.08827611027611</v>
       </c>
       <c r="D10">
-        <v>1.022817787251355</v>
+        <v>1.082586860475934</v>
       </c>
       <c r="E10">
-        <v>1.023249368381713</v>
+        <v>1.099343650886663</v>
       </c>
       <c r="F10">
-        <v>1.029757983724119</v>
+        <v>1.100278418994608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045137800563991</v>
+        <v>1.053120852458435</v>
       </c>
       <c r="J10">
-        <v>1.031831019438963</v>
+        <v>1.094267608535265</v>
       </c>
       <c r="K10">
-        <v>1.036786928794647</v>
+        <v>1.085873870210424</v>
       </c>
       <c r="L10">
-        <v>1.03721116412368</v>
+        <v>1.102577215331598</v>
       </c>
       <c r="M10">
-        <v>1.043609960724808</v>
+        <v>1.103509054426151</v>
       </c>
       <c r="N10">
-        <v>1.033296337839238</v>
+        <v>1.095821594053634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9960973670679892</v>
+        <v>1.087045354563791</v>
       </c>
       <c r="D11">
-        <v>1.016947226003441</v>
+        <v>1.081639508764767</v>
       </c>
       <c r="E11">
-        <v>1.016183532948866</v>
+        <v>1.098173842995287</v>
       </c>
       <c r="F11">
-        <v>1.023083992386437</v>
+        <v>1.09918011343182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042709173168836</v>
+        <v>1.052803730179022</v>
       </c>
       <c r="J11">
-        <v>1.025633406227755</v>
+        <v>1.093260506884041</v>
       </c>
       <c r="K11">
-        <v>1.031556466231244</v>
+        <v>1.08504527519938</v>
       </c>
       <c r="L11">
-        <v>1.030806571520079</v>
+        <v>1.101524791859634</v>
       </c>
       <c r="M11">
-        <v>1.037583324508883</v>
+        <v>1.102527784483331</v>
       </c>
       <c r="N11">
-        <v>1.027089923306394</v>
+        <v>1.09481306220255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9931781693431961</v>
+        <v>1.086587657737852</v>
       </c>
       <c r="D12">
-        <v>1.014714270083401</v>
+        <v>1.081287113541977</v>
       </c>
       <c r="E12">
-        <v>1.013495979352244</v>
+        <v>1.097738847692417</v>
       </c>
       <c r="F12">
-        <v>1.020545693058054</v>
+        <v>1.09877166764213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041782669746538</v>
+        <v>1.052685457386296</v>
       </c>
       <c r="J12">
-        <v>1.023274073905539</v>
+        <v>1.092885836799993</v>
       </c>
       <c r="K12">
-        <v>1.029564894961037</v>
+        <v>1.084736897321757</v>
       </c>
       <c r="L12">
-        <v>1.028369106161828</v>
+        <v>1.101133316790337</v>
       </c>
       <c r="M12">
-        <v>1.035289579017885</v>
+        <v>1.102162724781046</v>
       </c>
       <c r="N12">
-        <v>1.024727240461663</v>
+        <v>1.094437860044007</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938076879457438</v>
+        <v>1.086685859949438</v>
       </c>
       <c r="D13">
-        <v>1.015195716424208</v>
+        <v>1.081362726640259</v>
       </c>
       <c r="E13">
-        <v>1.014075442178612</v>
+        <v>1.097832177478866</v>
       </c>
       <c r="F13">
-        <v>1.021092964272824</v>
+        <v>1.098859302885806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041982555574391</v>
+        <v>1.052710849080264</v>
       </c>
       <c r="J13">
-        <v>1.023782860389184</v>
+        <v>1.092966231628609</v>
       </c>
       <c r="K13">
-        <v>1.029994391740124</v>
+        <v>1.084803072800641</v>
       </c>
       <c r="L13">
-        <v>1.028894711711555</v>
+        <v>1.101217315013085</v>
       </c>
       <c r="M13">
-        <v>1.035784198128121</v>
+        <v>1.102241057445581</v>
       </c>
       <c r="N13">
-        <v>1.025236749480472</v>
+        <v>1.094518369042501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9958575580157834</v>
+        <v>1.087007532305543</v>
       </c>
       <c r="D14">
-        <v>1.016763753093138</v>
+        <v>1.081610390073039</v>
       </c>
       <c r="E14">
-        <v>1.015962707750238</v>
+        <v>1.098137895960321</v>
       </c>
       <c r="F14">
-        <v>1.022875426012721</v>
+        <v>1.099146361177938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042633101396586</v>
+        <v>1.052793963523396</v>
       </c>
       <c r="J14">
-        <v>1.025439590588306</v>
+        <v>1.093229548609377</v>
       </c>
       <c r="K14">
-        <v>1.031392869564627</v>
+        <v>1.085019796912321</v>
       </c>
       <c r="L14">
-        <v>1.030606323848872</v>
+        <v>1.10149244387859</v>
       </c>
       <c r="M14">
-        <v>1.037394886216349</v>
+        <v>1.102497620289163</v>
       </c>
       <c r="N14">
-        <v>1.026895832426507</v>
+        <v>1.094782059963585</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9971109227684042</v>
+        <v>1.087205653266318</v>
       </c>
       <c r="D15">
-        <v>1.017722750147227</v>
+        <v>1.081762916181576</v>
       </c>
       <c r="E15">
-        <v>1.017116942696098</v>
+        <v>1.098326195588453</v>
       </c>
       <c r="F15">
-        <v>1.023965594210045</v>
+        <v>1.09932316240447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043030611105212</v>
+        <v>1.052845109389511</v>
       </c>
       <c r="J15">
-        <v>1.026452566916185</v>
+        <v>1.093391708589879</v>
       </c>
       <c r="K15">
-        <v>1.032247890176078</v>
+        <v>1.085153247825187</v>
       </c>
       <c r="L15">
-        <v>1.031652944089305</v>
+        <v>1.101661885457902</v>
       </c>
       <c r="M15">
-        <v>1.038379778511969</v>
+        <v>1.10265562087466</v>
       </c>
       <c r="N15">
-        <v>1.027910247296961</v>
+        <v>1.094944450229859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004265514380779</v>
+        <v>1.088357716803182</v>
       </c>
       <c r="D16">
-        <v>1.023200379739653</v>
+        <v>1.08264966272946</v>
       </c>
       <c r="E16">
-        <v>1.023709873627118</v>
+        <v>1.099421221210297</v>
       </c>
       <c r="F16">
-        <v>1.030192976023262</v>
+        <v>1.100351242531281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045295700225817</v>
+        <v>1.053141831861818</v>
       </c>
       <c r="J16">
-        <v>1.032234664975282</v>
+        <v>1.094334364922522</v>
       </c>
       <c r="K16">
-        <v>1.037127522780389</v>
+        <v>1.085928777726755</v>
       </c>
       <c r="L16">
-        <v>1.037628379257526</v>
+        <v>1.102646983741719</v>
       </c>
       <c r="M16">
-        <v>1.044002535167525</v>
+        <v>1.103574098562297</v>
       </c>
       <c r="N16">
-        <v>1.033700556598518</v>
+        <v>1.095888445242618</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008636204789478</v>
+        <v>1.089079433494324</v>
       </c>
       <c r="D17">
-        <v>1.026549302929765</v>
+        <v>1.08320500604831</v>
       </c>
       <c r="E17">
-        <v>1.027740922220999</v>
+        <v>1.100107269407312</v>
       </c>
       <c r="F17">
-        <v>1.034000806714934</v>
+        <v>1.100995279209581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046675768520125</v>
+        <v>1.053327109094806</v>
       </c>
       <c r="J17">
-        <v>1.035766504519218</v>
+        <v>1.094924636385384</v>
       </c>
       <c r="K17">
-        <v>1.040107307121744</v>
+        <v>1.086414189193991</v>
       </c>
       <c r="L17">
-        <v>1.041279428592981</v>
+        <v>1.103263930941647</v>
       </c>
       <c r="M17">
-        <v>1.047437833025718</v>
+        <v>1.104149230017831</v>
       </c>
       <c r="N17">
-        <v>1.037237411759714</v>
+        <v>1.096479554958663</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011145752155389</v>
+        <v>1.089500064628912</v>
       </c>
       <c r="D18">
-        <v>1.028473034842823</v>
+        <v>1.083528611896882</v>
       </c>
       <c r="E18">
-        <v>1.030056628611337</v>
+        <v>1.100507134715239</v>
       </c>
       <c r="F18">
-        <v>1.036188361869084</v>
+        <v>1.101370632926381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047466801874366</v>
+        <v>1.053434873854394</v>
       </c>
       <c r="J18">
-        <v>1.037794200024122</v>
+        <v>1.095268564405174</v>
       </c>
       <c r="K18">
-        <v>1.041817742390407</v>
+        <v>1.086696943995225</v>
       </c>
       <c r="L18">
-        <v>1.043375958524669</v>
+        <v>1.103623437680688</v>
       </c>
       <c r="M18">
-        <v>1.04941036512114</v>
+        <v>1.10448433650891</v>
       </c>
       <c r="N18">
-        <v>1.039267986824815</v>
+        <v>1.09682397139569</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011994907520383</v>
+        <v>1.089643432847976</v>
       </c>
       <c r="D19">
-        <v>1.029124104376023</v>
+        <v>1.083638899816806</v>
       </c>
       <c r="E19">
-        <v>1.030840386330641</v>
+        <v>1.100643428883466</v>
       </c>
       <c r="F19">
-        <v>1.036928758001507</v>
+        <v>1.101498568057292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047734226687215</v>
+        <v>1.053471567387663</v>
       </c>
       <c r="J19">
-        <v>1.038480271507317</v>
+        <v>1.095385773092357</v>
       </c>
       <c r="K19">
-        <v>1.042396413157669</v>
+        <v>1.086793292399155</v>
       </c>
       <c r="L19">
-        <v>1.044085386339064</v>
+        <v>1.103745961577219</v>
       </c>
       <c r="M19">
-        <v>1.050077814848602</v>
+        <v>1.104598538854201</v>
       </c>
       <c r="N19">
-        <v>1.039955032608209</v>
+        <v>1.096941346532653</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008171440179084</v>
+        <v>1.08900203479679</v>
       </c>
       <c r="D20">
-        <v>1.026193097976454</v>
+        <v>1.083145455794342</v>
       </c>
       <c r="E20">
-        <v>1.027312150252418</v>
+        <v>1.100033693554006</v>
       </c>
       <c r="F20">
-        <v>1.033595769008798</v>
+        <v>1.100926211508848</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046529157994482</v>
+        <v>1.05330726211457</v>
       </c>
       <c r="J20">
-        <v>1.035390960419101</v>
+        <v>1.09486134394173</v>
       </c>
       <c r="K20">
-        <v>1.039790495862168</v>
+        <v>1.086362148268406</v>
       </c>
       <c r="L20">
-        <v>1.040891167655807</v>
+        <v>1.103197774458913</v>
       </c>
       <c r="M20">
-        <v>1.047072526494263</v>
+        <v>1.104087560978573</v>
       </c>
       <c r="N20">
-        <v>1.036861334343899</v>
+        <v>1.096416172632479</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9952559442177856</v>
+        <v>1.086912822843869</v>
       </c>
       <c r="D21">
-        <v>1.016303500530487</v>
+        <v>1.081537473450673</v>
       </c>
       <c r="E21">
-        <v>1.015408754870923</v>
+        <v>1.098047882768789</v>
       </c>
       <c r="F21">
-        <v>1.02235222880506</v>
+        <v>1.099061843204006</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042442227025904</v>
+        <v>1.052769501667832</v>
       </c>
       <c r="J21">
-        <v>1.024953360300012</v>
+        <v>1.093152024659425</v>
       </c>
       <c r="K21">
-        <v>1.030982443979983</v>
+        <v>1.08495599374307</v>
       </c>
       <c r="L21">
-        <v>1.030103968050838</v>
+        <v>1.101411440809702</v>
       </c>
       <c r="M21">
-        <v>1.03692215446907</v>
+        <v>1.102422084835635</v>
       </c>
       <c r="N21">
-        <v>1.026408911635431</v>
+        <v>1.094704425920731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9867213594900658</v>
+        <v>1.085596123060697</v>
       </c>
       <c r="D22">
-        <v>1.009779018235209</v>
+        <v>1.080523533739967</v>
       </c>
       <c r="E22">
-        <v>1.007555856843181</v>
+        <v>1.096796559613965</v>
       </c>
       <c r="F22">
-        <v>1.014935945666694</v>
+        <v>1.097886820572068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039729897113883</v>
+        <v>1.052428613783003</v>
       </c>
       <c r="J22">
-        <v>1.018055635168485</v>
+        <v>1.092073900451104</v>
       </c>
       <c r="K22">
-        <v>1.02515920857086</v>
+        <v>1.084068406643124</v>
       </c>
       <c r="L22">
-        <v>1.022979102224063</v>
+        <v>1.100285065455759</v>
       </c>
       <c r="M22">
-        <v>1.03021721387046</v>
+        <v>1.101371615603567</v>
       </c>
       <c r="N22">
-        <v>1.019501390943037</v>
+        <v>1.093624770652371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9912879496692693</v>
+        <v>1.086294433017047</v>
       </c>
       <c r="D23">
-        <v>1.013268947057274</v>
+        <v>1.081061324986455</v>
       </c>
       <c r="E23">
-        <v>1.011756398853384</v>
+        <v>1.097460177033968</v>
       </c>
       <c r="F23">
-        <v>1.018902791309041</v>
+        <v>1.098509994495543</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041182204831738</v>
+        <v>1.052609589791287</v>
       </c>
       <c r="J23">
-        <v>1.02174636993712</v>
+        <v>1.0926457622474</v>
       </c>
       <c r="K23">
-        <v>1.028275215292349</v>
+        <v>1.084539267361274</v>
       </c>
       <c r="L23">
-        <v>1.026790999438609</v>
+        <v>1.100882490012852</v>
       </c>
       <c r="M23">
-        <v>1.033804493496373</v>
+        <v>1.101928808311211</v>
       </c>
       <c r="N23">
-        <v>1.023197366978377</v>
+        <v>1.094197444558011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008381569728835</v>
+        <v>1.089037008968486</v>
       </c>
       <c r="D24">
-        <v>1.026354142845066</v>
+        <v>1.083172364968769</v>
       </c>
       <c r="E24">
-        <v>1.027506003163255</v>
+        <v>1.100066940226511</v>
       </c>
       <c r="F24">
-        <v>1.033778891132998</v>
+        <v>1.100957421162861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046595447872537</v>
+        <v>1.053316231050937</v>
       </c>
       <c r="J24">
-        <v>1.035560752205013</v>
+        <v>1.094889944207572</v>
       </c>
       <c r="K24">
-        <v>1.039933734218616</v>
+        <v>1.086385664488973</v>
       </c>
       <c r="L24">
-        <v>1.041066707781208</v>
+        <v>1.103227668801374</v>
       </c>
       <c r="M24">
-        <v>1.047237688835804</v>
+        <v>1.104115427668884</v>
       </c>
       <c r="N24">
-        <v>1.037031367253623</v>
+        <v>1.096444813513979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026673747483409</v>
+        <v>1.092206573776598</v>
       </c>
       <c r="D25">
-        <v>1.040388618613212</v>
+        <v>1.085609736126201</v>
       </c>
       <c r="E25">
-        <v>1.044403838066905</v>
+        <v>1.103080425411213</v>
       </c>
       <c r="F25">
-        <v>1.049742410775295</v>
+        <v>1.103785727360037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05233592422416</v>
+        <v>1.054124328652922</v>
       </c>
       <c r="J25">
-        <v>1.050335611611054</v>
+        <v>1.097479831565423</v>
       </c>
       <c r="K25">
-        <v>1.052390713704008</v>
+        <v>1.088513537753031</v>
       </c>
       <c r="L25">
-        <v>1.056349840708667</v>
+        <v>1.10593551217533</v>
       </c>
       <c r="M25">
-        <v>1.061614671073958</v>
+        <v>1.106638882558813</v>
       </c>
       <c r="N25">
-        <v>1.05182720865472</v>
+        <v>1.099038378808942</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.094724718943803</v>
+        <v>1.040247291848514</v>
       </c>
       <c r="D2">
-        <v>1.087544245363512</v>
+        <v>1.050818544309841</v>
       </c>
       <c r="E2">
-        <v>1.105475243550892</v>
+        <v>1.056970712021903</v>
       </c>
       <c r="F2">
-        <v>1.106032582824806</v>
+        <v>1.061614652050981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054759433496571</v>
+        <v>1.056549121471404</v>
       </c>
       <c r="J2">
-        <v>1.099534447332846</v>
+        <v>1.061287416619209</v>
       </c>
       <c r="K2">
-        <v>1.090199235921284</v>
+        <v>1.061612543408835</v>
       </c>
       <c r="L2">
-        <v>1.108084829822062</v>
+        <v>1.067689561399289</v>
       </c>
       <c r="M2">
-        <v>1.108640783222091</v>
+        <v>1.072277490791436</v>
       </c>
       <c r="N2">
-        <v>1.101095912366422</v>
+        <v>1.062794566482176</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.096547688467868</v>
+        <v>1.04960371690171</v>
       </c>
       <c r="D3">
-        <v>1.08894356324363</v>
+        <v>1.058013324453821</v>
       </c>
       <c r="E3">
-        <v>1.107209307454973</v>
+        <v>1.065646616645791</v>
       </c>
       <c r="F3">
-        <v>1.107659039332691</v>
+        <v>1.069810295787642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05521519482839</v>
+        <v>1.059424541262853</v>
       </c>
       <c r="J3">
-        <v>1.101020111055283</v>
+        <v>1.068827771517022</v>
       </c>
       <c r="K3">
-        <v>1.09141674748309</v>
+        <v>1.067954060998603</v>
       </c>
       <c r="L3">
-        <v>1.109639621278553</v>
+        <v>1.075503177101598</v>
       </c>
       <c r="M3">
-        <v>1.110088316736458</v>
+        <v>1.07962156240155</v>
       </c>
       <c r="N3">
-        <v>1.102583685901753</v>
+        <v>1.070345629548835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.097724861194594</v>
+        <v>1.055451788849215</v>
       </c>
       <c r="D4">
-        <v>1.089846631427033</v>
+        <v>1.06251168097639</v>
       </c>
       <c r="E4">
-        <v>1.108329238015807</v>
+        <v>1.071074766690672</v>
       </c>
       <c r="F4">
-        <v>1.108709253941864</v>
+        <v>1.074937412368569</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055507641793345</v>
+        <v>1.061207893483783</v>
       </c>
       <c r="J4">
-        <v>1.101978661950653</v>
+        <v>1.073536055020261</v>
       </c>
       <c r="K4">
-        <v>1.092201639698915</v>
+        <v>1.071909938093628</v>
       </c>
       <c r="L4">
-        <v>1.110643073628432</v>
+        <v>1.080384875480132</v>
       </c>
       <c r="M4">
-        <v>1.111022258407817</v>
+        <v>1.084208318678999</v>
       </c>
       <c r="N4">
-        <v>1.103543598049343</v>
+        <v>1.075060599354696</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.098219181798792</v>
+        <v>1.057864231801896</v>
       </c>
       <c r="D5">
-        <v>1.09022572064687</v>
+        <v>1.064367529910437</v>
       </c>
       <c r="E5">
-        <v>1.108799560857636</v>
+        <v>1.073315184454514</v>
       </c>
       <c r="F5">
-        <v>1.10915024648958</v>
+        <v>1.077053417548973</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055630001372214</v>
+        <v>1.061940151270966</v>
       </c>
       <c r="J5">
-        <v>1.102380984476992</v>
+        <v>1.07547711014738</v>
       </c>
       <c r="K5">
-        <v>1.092530919061478</v>
+        <v>1.073539846205206</v>
       </c>
       <c r="L5">
-        <v>1.111064313976778</v>
+        <v>1.082398083733583</v>
       </c>
       <c r="M5">
-        <v>1.111414249884779</v>
+        <v>1.086099493302828</v>
       </c>
       <c r="N5">
-        <v>1.103946491919815</v>
+        <v>1.077004411002738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.09830214781211</v>
+        <v>1.05826667798946</v>
       </c>
       <c r="D6">
-        <v>1.090289338810487</v>
+        <v>1.064677131767643</v>
       </c>
       <c r="E6">
-        <v>1.108878501415792</v>
+        <v>1.073689001086425</v>
       </c>
       <c r="F6">
-        <v>1.109224261062268</v>
+        <v>1.077406465292254</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055650511889336</v>
+        <v>1.062062104487406</v>
       </c>
       <c r="J6">
-        <v>1.10244849828425</v>
+        <v>1.07580084600135</v>
       </c>
       <c r="K6">
-        <v>1.09258616636848</v>
+        <v>1.07381163058417</v>
       </c>
       <c r="L6">
-        <v>1.111135006596295</v>
+        <v>1.082733892161766</v>
       </c>
       <c r="M6">
-        <v>1.111480029907623</v>
+        <v>1.086414922151205</v>
       </c>
       <c r="N6">
-        <v>1.104014101604424</v>
+        <v>1.077328606598753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.097731468522577</v>
+        <v>1.055484201042535</v>
       </c>
       <c r="D7">
-        <v>1.08985169902474</v>
+        <v>1.062536614520847</v>
       </c>
       <c r="E7">
-        <v>1.108335524423957</v>
+        <v>1.071104863023157</v>
       </c>
       <c r="F7">
-        <v>1.108715148523755</v>
+        <v>1.074965838110206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055509279061529</v>
+        <v>1.061217745285111</v>
       </c>
       <c r="J7">
-        <v>1.101984040350995</v>
+        <v>1.073562138783511</v>
       </c>
       <c r="K7">
-        <v>1.092206042241297</v>
+        <v>1.071931844523143</v>
       </c>
       <c r="L7">
-        <v>1.110648704647179</v>
+        <v>1.080411926225476</v>
       </c>
       <c r="M7">
-        <v>1.111027498707277</v>
+        <v>1.084233731311174</v>
       </c>
       <c r="N7">
-        <v>1.103548984087629</v>
+        <v>1.075086720159882</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.095341307743296</v>
+        <v>1.043454103529369</v>
       </c>
       <c r="D8">
-        <v>1.088017651132323</v>
+        <v>1.053284091173838</v>
       </c>
       <c r="E8">
-        <v>1.10606172618091</v>
+        <v>1.059943068622954</v>
       </c>
       <c r="F8">
-        <v>1.106582716433555</v>
+        <v>1.064422569071971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054913972215502</v>
+        <v>1.057537527431677</v>
       </c>
       <c r="J8">
-        <v>1.100037115472286</v>
+        <v>1.063872731147648</v>
       </c>
       <c r="K8">
-        <v>1.090611309849217</v>
+        <v>1.06378761023406</v>
       </c>
       <c r="L8">
-        <v>1.108610824718937</v>
+        <v>1.070367971003558</v>
       </c>
       <c r="M8">
-        <v>1.109130551584239</v>
+        <v>1.074795270026117</v>
       </c>
       <c r="N8">
-        <v>1.101599294352277</v>
+        <v>1.065383552453786</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.091110436007784</v>
+        <v>1.020509387865537</v>
       </c>
       <c r="D9">
-        <v>1.084767110148246</v>
+        <v>1.035655955927397</v>
       </c>
       <c r="E9">
-        <v>1.102038158242861</v>
+        <v>1.038704437977847</v>
       </c>
       <c r="F9">
-        <v>1.102807631147321</v>
+        <v>1.044357979274863</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053845933083618</v>
+        <v>1.050408577619623</v>
       </c>
       <c r="J9">
-        <v>1.096584627378029</v>
+        <v>1.045358129134399</v>
       </c>
       <c r="K9">
-        <v>1.087778400684124</v>
+        <v>1.048195865484318</v>
       </c>
       <c r="L9">
-        <v>1.104999361257431</v>
+        <v>1.051199291933249</v>
       </c>
       <c r="M9">
-        <v>1.105766642271563</v>
+        <v>1.056770158574941</v>
       </c>
       <c r="N9">
-        <v>1.098141903328921</v>
+        <v>1.046842657582024</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.08827611027611</v>
+        <v>1.003766028016243</v>
       </c>
       <c r="D10">
-        <v>1.082586860475934</v>
+        <v>1.022817787251353</v>
       </c>
       <c r="E10">
-        <v>1.099343650886663</v>
+        <v>1.02324936838171</v>
       </c>
       <c r="F10">
-        <v>1.100278418994608</v>
+        <v>1.029757983724118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053120852458435</v>
+        <v>1.04513780056399</v>
       </c>
       <c r="J10">
-        <v>1.094267608535265</v>
+        <v>1.031831019438961</v>
       </c>
       <c r="K10">
-        <v>1.085873870210424</v>
+        <v>1.036786928794645</v>
       </c>
       <c r="L10">
-        <v>1.102577215331598</v>
+        <v>1.037211164123678</v>
       </c>
       <c r="M10">
-        <v>1.103509054426151</v>
+        <v>1.043609960724806</v>
       </c>
       <c r="N10">
-        <v>1.095821594053634</v>
+        <v>1.033296337839236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.087045354563791</v>
+        <v>0.9960973670679896</v>
       </c>
       <c r="D11">
-        <v>1.081639508764767</v>
+        <v>1.016947226003442</v>
       </c>
       <c r="E11">
-        <v>1.098173842995287</v>
+        <v>1.016183532948866</v>
       </c>
       <c r="F11">
-        <v>1.09918011343182</v>
+        <v>1.023083992386437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052803730179022</v>
+        <v>1.042709173168836</v>
       </c>
       <c r="J11">
-        <v>1.093260506884041</v>
+        <v>1.025633406227755</v>
       </c>
       <c r="K11">
-        <v>1.08504527519938</v>
+        <v>1.031556466231244</v>
       </c>
       <c r="L11">
-        <v>1.101524791859634</v>
+        <v>1.03080657152008</v>
       </c>
       <c r="M11">
-        <v>1.102527784483331</v>
+        <v>1.037583324508883</v>
       </c>
       <c r="N11">
-        <v>1.09481306220255</v>
+        <v>1.027089923306395</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.086587657737852</v>
+        <v>0.9931781693431968</v>
       </c>
       <c r="D12">
-        <v>1.081287113541977</v>
+        <v>1.014714270083402</v>
       </c>
       <c r="E12">
-        <v>1.097738847692417</v>
+        <v>1.013495979352244</v>
       </c>
       <c r="F12">
-        <v>1.09877166764213</v>
+        <v>1.020545693058055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052685457386296</v>
+        <v>1.041782669746538</v>
       </c>
       <c r="J12">
-        <v>1.092885836799993</v>
+        <v>1.02327407390554</v>
       </c>
       <c r="K12">
-        <v>1.084736897321757</v>
+        <v>1.029564894961038</v>
       </c>
       <c r="L12">
-        <v>1.101133316790337</v>
+        <v>1.028369106161829</v>
       </c>
       <c r="M12">
-        <v>1.102162724781046</v>
+        <v>1.035289579017885</v>
       </c>
       <c r="N12">
-        <v>1.094437860044007</v>
+        <v>1.024727240461663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.086685859949438</v>
+        <v>0.9938076879457464</v>
       </c>
       <c r="D13">
-        <v>1.081362726640259</v>
+        <v>1.01519571642421</v>
       </c>
       <c r="E13">
-        <v>1.097832177478866</v>
+        <v>1.014075442178614</v>
       </c>
       <c r="F13">
-        <v>1.098859302885806</v>
+        <v>1.021092964272826</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052710849080264</v>
+        <v>1.041982555574392</v>
       </c>
       <c r="J13">
-        <v>1.092966231628609</v>
+        <v>1.023782860389187</v>
       </c>
       <c r="K13">
-        <v>1.084803072800641</v>
+        <v>1.029994391740126</v>
       </c>
       <c r="L13">
-        <v>1.101217315013085</v>
+        <v>1.028894711711557</v>
       </c>
       <c r="M13">
-        <v>1.102241057445581</v>
+        <v>1.035784198128123</v>
       </c>
       <c r="N13">
-        <v>1.094518369042501</v>
+        <v>1.025236749480475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.087007532305543</v>
+        <v>0.9958575580157851</v>
       </c>
       <c r="D14">
-        <v>1.081610390073039</v>
+        <v>1.01676375309314</v>
       </c>
       <c r="E14">
-        <v>1.098137895960321</v>
+        <v>1.01596270775024</v>
       </c>
       <c r="F14">
-        <v>1.099146361177938</v>
+        <v>1.022875426012723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052793963523396</v>
+        <v>1.042633101396587</v>
       </c>
       <c r="J14">
-        <v>1.093229548609377</v>
+        <v>1.025439590588308</v>
       </c>
       <c r="K14">
-        <v>1.085019796912321</v>
+        <v>1.031392869564628</v>
       </c>
       <c r="L14">
-        <v>1.10149244387859</v>
+        <v>1.030606323848873</v>
       </c>
       <c r="M14">
-        <v>1.102497620289163</v>
+        <v>1.037394886216351</v>
       </c>
       <c r="N14">
-        <v>1.094782059963585</v>
+        <v>1.026895832426508</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.087205653266318</v>
+        <v>0.9971109227684053</v>
       </c>
       <c r="D15">
-        <v>1.081762916181576</v>
+        <v>1.017722750147228</v>
       </c>
       <c r="E15">
-        <v>1.098326195588453</v>
+        <v>1.017116942696099</v>
       </c>
       <c r="F15">
-        <v>1.09932316240447</v>
+        <v>1.023965594210047</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052845109389511</v>
+        <v>1.043030611105213</v>
       </c>
       <c r="J15">
-        <v>1.093391708589879</v>
+        <v>1.026452566916186</v>
       </c>
       <c r="K15">
-        <v>1.085153247825187</v>
+        <v>1.032247890176079</v>
       </c>
       <c r="L15">
-        <v>1.101661885457902</v>
+        <v>1.031652944089306</v>
       </c>
       <c r="M15">
-        <v>1.10265562087466</v>
+        <v>1.038379778511971</v>
       </c>
       <c r="N15">
-        <v>1.094944450229859</v>
+        <v>1.027910247296963</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.088357716803182</v>
+        <v>1.004265514380778</v>
       </c>
       <c r="D16">
-        <v>1.08264966272946</v>
+        <v>1.023200379739652</v>
       </c>
       <c r="E16">
-        <v>1.099421221210297</v>
+        <v>1.023709873627117</v>
       </c>
       <c r="F16">
-        <v>1.100351242531281</v>
+        <v>1.030192976023262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053141831861818</v>
+        <v>1.045295700225817</v>
       </c>
       <c r="J16">
-        <v>1.094334364922522</v>
+        <v>1.032234664975282</v>
       </c>
       <c r="K16">
-        <v>1.085928777726755</v>
+        <v>1.037127522780388</v>
       </c>
       <c r="L16">
-        <v>1.102646983741719</v>
+        <v>1.037628379257525</v>
       </c>
       <c r="M16">
-        <v>1.103574098562297</v>
+        <v>1.044002535167525</v>
       </c>
       <c r="N16">
-        <v>1.095888445242618</v>
+        <v>1.033700556598518</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.089079433494324</v>
+        <v>1.008636204789477</v>
       </c>
       <c r="D17">
-        <v>1.08320500604831</v>
+        <v>1.026549302929765</v>
       </c>
       <c r="E17">
-        <v>1.100107269407312</v>
+        <v>1.027740922220999</v>
       </c>
       <c r="F17">
-        <v>1.100995279209581</v>
+        <v>1.034000806714934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053327109094806</v>
+        <v>1.046675768520125</v>
       </c>
       <c r="J17">
-        <v>1.094924636385384</v>
+        <v>1.035766504519218</v>
       </c>
       <c r="K17">
-        <v>1.086414189193991</v>
+        <v>1.040107307121744</v>
       </c>
       <c r="L17">
-        <v>1.103263930941647</v>
+        <v>1.041279428592981</v>
       </c>
       <c r="M17">
-        <v>1.104149230017831</v>
+        <v>1.047437833025717</v>
       </c>
       <c r="N17">
-        <v>1.096479554958663</v>
+        <v>1.037237411759714</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.089500064628912</v>
+        <v>1.011145752155387</v>
       </c>
       <c r="D18">
-        <v>1.083528611896882</v>
+        <v>1.028473034842822</v>
       </c>
       <c r="E18">
-        <v>1.100507134715239</v>
+        <v>1.030056628611335</v>
       </c>
       <c r="F18">
-        <v>1.101370632926381</v>
+        <v>1.036188361869083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053434873854394</v>
+        <v>1.047466801874365</v>
       </c>
       <c r="J18">
-        <v>1.095268564405174</v>
+        <v>1.037794200024121</v>
       </c>
       <c r="K18">
-        <v>1.086696943995225</v>
+        <v>1.041817742390406</v>
       </c>
       <c r="L18">
-        <v>1.103623437680688</v>
+        <v>1.043375958524667</v>
       </c>
       <c r="M18">
-        <v>1.10448433650891</v>
+        <v>1.049410365121139</v>
       </c>
       <c r="N18">
-        <v>1.09682397139569</v>
+        <v>1.039267986824813</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.089643432847976</v>
+        <v>1.011994907520386</v>
       </c>
       <c r="D19">
-        <v>1.083638899816806</v>
+        <v>1.029124104376024</v>
       </c>
       <c r="E19">
-        <v>1.100643428883466</v>
+        <v>1.030840386330643</v>
       </c>
       <c r="F19">
-        <v>1.101498568057292</v>
+        <v>1.036928758001509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053471567387663</v>
+        <v>1.047734226687216</v>
       </c>
       <c r="J19">
-        <v>1.095385773092357</v>
+        <v>1.038480271507319</v>
       </c>
       <c r="K19">
-        <v>1.086793292399155</v>
+        <v>1.04239641315767</v>
       </c>
       <c r="L19">
-        <v>1.103745961577219</v>
+        <v>1.044085386339067</v>
       </c>
       <c r="M19">
-        <v>1.104598538854201</v>
+        <v>1.050077814848604</v>
       </c>
       <c r="N19">
-        <v>1.096941346532653</v>
+        <v>1.039955032608212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.08900203479679</v>
+        <v>1.008171440179085</v>
       </c>
       <c r="D20">
-        <v>1.083145455794342</v>
+        <v>1.026193097976455</v>
       </c>
       <c r="E20">
-        <v>1.100033693554006</v>
+        <v>1.027312150252419</v>
       </c>
       <c r="F20">
-        <v>1.100926211508848</v>
+        <v>1.033595769008799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05330726211457</v>
+        <v>1.046529157994482</v>
       </c>
       <c r="J20">
-        <v>1.09486134394173</v>
+        <v>1.035390960419102</v>
       </c>
       <c r="K20">
-        <v>1.086362148268406</v>
+        <v>1.039790495862168</v>
       </c>
       <c r="L20">
-        <v>1.103197774458913</v>
+        <v>1.040891167655808</v>
       </c>
       <c r="M20">
-        <v>1.104087560978573</v>
+        <v>1.047072526494264</v>
       </c>
       <c r="N20">
-        <v>1.096416172632479</v>
+        <v>1.0368613343439</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.086912822843869</v>
+        <v>0.9952559442177858</v>
       </c>
       <c r="D21">
-        <v>1.081537473450673</v>
+        <v>1.016303500530487</v>
       </c>
       <c r="E21">
-        <v>1.098047882768789</v>
+        <v>1.015408754870923</v>
       </c>
       <c r="F21">
-        <v>1.099061843204006</v>
+        <v>1.02235222880506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052769501667832</v>
+        <v>1.042442227025904</v>
       </c>
       <c r="J21">
-        <v>1.093152024659425</v>
+        <v>1.024953360300012</v>
       </c>
       <c r="K21">
-        <v>1.08495599374307</v>
+        <v>1.030982443979983</v>
       </c>
       <c r="L21">
-        <v>1.101411440809702</v>
+        <v>1.030103968050838</v>
       </c>
       <c r="M21">
-        <v>1.102422084835635</v>
+        <v>1.03692215446907</v>
       </c>
       <c r="N21">
-        <v>1.094704425920731</v>
+        <v>1.026408911635432</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.085596123060697</v>
+        <v>0.9867213594900666</v>
       </c>
       <c r="D22">
-        <v>1.080523533739967</v>
+        <v>1.00977901823521</v>
       </c>
       <c r="E22">
-        <v>1.096796559613965</v>
+        <v>1.007555856843182</v>
       </c>
       <c r="F22">
-        <v>1.097886820572068</v>
+        <v>1.014935945666695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052428613783003</v>
+        <v>1.039729897113883</v>
       </c>
       <c r="J22">
-        <v>1.092073900451104</v>
+        <v>1.018055635168485</v>
       </c>
       <c r="K22">
-        <v>1.084068406643124</v>
+        <v>1.02515920857086</v>
       </c>
       <c r="L22">
-        <v>1.100285065455759</v>
+        <v>1.022979102224064</v>
       </c>
       <c r="M22">
-        <v>1.101371615603567</v>
+        <v>1.030217213870462</v>
       </c>
       <c r="N22">
-        <v>1.093624770652371</v>
+        <v>1.019501390943038</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.086294433017047</v>
+        <v>0.991287949669268</v>
       </c>
       <c r="D23">
-        <v>1.081061324986455</v>
+        <v>1.013268947057274</v>
       </c>
       <c r="E23">
-        <v>1.097460177033968</v>
+        <v>1.011756398853382</v>
       </c>
       <c r="F23">
-        <v>1.098509994495543</v>
+        <v>1.01890279130904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052609589791287</v>
+        <v>1.041182204831738</v>
       </c>
       <c r="J23">
-        <v>1.0926457622474</v>
+        <v>1.021746369937118</v>
       </c>
       <c r="K23">
-        <v>1.084539267361274</v>
+        <v>1.028275215292347</v>
       </c>
       <c r="L23">
-        <v>1.100882490012852</v>
+        <v>1.026790999438608</v>
       </c>
       <c r="M23">
-        <v>1.101928808311211</v>
+        <v>1.033804493496372</v>
       </c>
       <c r="N23">
-        <v>1.094197444558011</v>
+        <v>1.023197366978376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.089037008968486</v>
+        <v>1.008381569728832</v>
       </c>
       <c r="D24">
-        <v>1.083172364968769</v>
+        <v>1.026354142845064</v>
       </c>
       <c r="E24">
-        <v>1.100066940226511</v>
+        <v>1.027506003163253</v>
       </c>
       <c r="F24">
-        <v>1.100957421162861</v>
+        <v>1.033778891132995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053316231050937</v>
+        <v>1.046595447872536</v>
       </c>
       <c r="J24">
-        <v>1.094889944207572</v>
+        <v>1.035560752205011</v>
       </c>
       <c r="K24">
-        <v>1.086385664488973</v>
+        <v>1.039933734218614</v>
       </c>
       <c r="L24">
-        <v>1.103227668801374</v>
+        <v>1.041066707781205</v>
       </c>
       <c r="M24">
-        <v>1.104115427668884</v>
+        <v>1.047237688835802</v>
       </c>
       <c r="N24">
-        <v>1.096444813513979</v>
+        <v>1.03703136725362</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.092206573776598</v>
+        <v>1.026673747483413</v>
       </c>
       <c r="D25">
-        <v>1.085609736126201</v>
+        <v>1.040388618613215</v>
       </c>
       <c r="E25">
-        <v>1.103080425411213</v>
+        <v>1.044403838066908</v>
       </c>
       <c r="F25">
-        <v>1.103785727360037</v>
+        <v>1.049742410775298</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054124328652922</v>
+        <v>1.052335924224161</v>
       </c>
       <c r="J25">
-        <v>1.097479831565423</v>
+        <v>1.050335611611057</v>
       </c>
       <c r="K25">
-        <v>1.088513537753031</v>
+        <v>1.052390713704011</v>
       </c>
       <c r="L25">
-        <v>1.10593551217533</v>
+        <v>1.05634984070867</v>
       </c>
       <c r="M25">
-        <v>1.106638882558813</v>
+        <v>1.061614671073961</v>
       </c>
       <c r="N25">
-        <v>1.099038378808942</v>
+        <v>1.051827208654724</v>
       </c>
     </row>
   </sheetData>
